--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4g-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.40771750974232</v>
+        <v>0.172848</v>
       </c>
       <c r="H2">
-        <v>2.40771750974232</v>
+        <v>0.518544</v>
       </c>
       <c r="I2">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="J2">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N2">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q2">
-        <v>16.98301319946927</v>
+        <v>1.51718225048</v>
       </c>
       <c r="R2">
-        <v>16.98301319946927</v>
+        <v>13.65464025432</v>
       </c>
       <c r="S2">
-        <v>0.04025788118376219</v>
+        <v>0.002990789828706947</v>
       </c>
       <c r="T2">
-        <v>0.04025788118376219</v>
+        <v>0.002990789828706947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.40771750974232</v>
+        <v>0.172848</v>
       </c>
       <c r="H3">
-        <v>2.40771750974232</v>
+        <v>0.518544</v>
       </c>
       <c r="I3">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="J3">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q3">
-        <v>86.80383169042058</v>
+        <v>6.246969917136002</v>
       </c>
       <c r="R3">
-        <v>86.80383169042058</v>
+        <v>56.22272925422401</v>
       </c>
       <c r="S3">
-        <v>0.2057666858904313</v>
+        <v>0.01231452192542963</v>
       </c>
       <c r="T3">
-        <v>0.2057666858904313</v>
+        <v>0.01231452192542963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.40771750974232</v>
+        <v>0.172848</v>
       </c>
       <c r="H4">
-        <v>2.40771750974232</v>
+        <v>0.518544</v>
       </c>
       <c r="I4">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="J4">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N4">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q4">
-        <v>113.1507436672024</v>
+        <v>9.434121103056</v>
       </c>
       <c r="R4">
-        <v>113.1507436672024</v>
+        <v>84.907089927504</v>
       </c>
       <c r="S4">
-        <v>0.2682214952615664</v>
+        <v>0.01859728679852585</v>
       </c>
       <c r="T4">
-        <v>0.2682214952615664</v>
+        <v>0.01859728679852585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.40771750974232</v>
+        <v>0.172848</v>
       </c>
       <c r="H5">
-        <v>2.40771750974232</v>
+        <v>0.518544</v>
       </c>
       <c r="I5">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="J5">
-        <v>0.6094175919780358</v>
+        <v>0.04011888417844697</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N5">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q5">
-        <v>40.14864410649563</v>
+        <v>3.153427273568</v>
       </c>
       <c r="R5">
-        <v>40.14864410649563</v>
+        <v>28.380845462112</v>
       </c>
       <c r="S5">
-        <v>0.09517152964227603</v>
+        <v>0.006216285625784535</v>
       </c>
       <c r="T5">
-        <v>0.09517152964227603</v>
+        <v>0.006216285625784533</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.54313251729316</v>
+        <v>2.436670666666667</v>
       </c>
       <c r="H6">
-        <v>1.54313251729316</v>
+        <v>7.310012</v>
       </c>
       <c r="I6">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="J6">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N6">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q6">
-        <v>10.88459912912488</v>
+        <v>21.38800267131777</v>
       </c>
       <c r="R6">
-        <v>10.88459912912488</v>
+        <v>192.49202404186</v>
       </c>
       <c r="S6">
-        <v>0.02580171688772429</v>
+        <v>0.04216172501721305</v>
       </c>
       <c r="T6">
-        <v>0.02580171688772429</v>
+        <v>0.04216172501721305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.54313251729316</v>
+        <v>2.436670666666667</v>
       </c>
       <c r="H7">
-        <v>1.54313251729316</v>
+        <v>7.310012</v>
       </c>
       <c r="I7">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="J7">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q7">
-        <v>55.63352626092176</v>
+        <v>88.06470628896135</v>
       </c>
       <c r="R7">
-        <v>55.63352626092176</v>
+        <v>792.582356600652</v>
       </c>
       <c r="S7">
-        <v>0.1318781222001224</v>
+        <v>0.1736001246743839</v>
       </c>
       <c r="T7">
-        <v>0.1318781222001224</v>
+        <v>0.1736001246743838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.54313251729316</v>
+        <v>2.436670666666667</v>
       </c>
       <c r="H8">
-        <v>1.54313251729316</v>
+        <v>7.310012</v>
       </c>
       <c r="I8">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="J8">
-        <v>0.3905824080219642</v>
+        <v>0.5655634329411919</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N8">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q8">
-        <v>72.5195506542003</v>
+        <v>132.9945741784547</v>
       </c>
       <c r="R8">
-        <v>72.5195506542003</v>
+        <v>1196.951167606092</v>
       </c>
       <c r="S8">
-        <v>0.1719060934268045</v>
+        <v>0.2621694391694158</v>
       </c>
       <c r="T8">
-        <v>0.1719060934268045</v>
+        <v>0.2621694391694158</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.436670666666667</v>
+      </c>
+      <c r="H9">
+        <v>7.310012</v>
+      </c>
+      <c r="I9">
+        <v>0.5655634329411919</v>
+      </c>
+      <c r="J9">
+        <v>0.5655634329411919</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N9">
+        <v>54.731798</v>
+      </c>
+      <c r="O9">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P9">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q9">
+        <v>44.45445557350845</v>
+      </c>
+      <c r="R9">
+        <v>400.090100161576</v>
+      </c>
+      <c r="S9">
+        <v>0.08763214408017922</v>
+      </c>
+      <c r="T9">
+        <v>0.08763214408017921</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.698876333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.096629</v>
+      </c>
+      <c r="I10">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="J10">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.777551666666666</v>
+      </c>
+      <c r="N10">
+        <v>26.332655</v>
+      </c>
+      <c r="O10">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="P10">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="Q10">
+        <v>14.91197479111056</v>
+      </c>
+      <c r="R10">
+        <v>134.207773119995</v>
+      </c>
+      <c r="S10">
+        <v>0.02939566589121242</v>
+      </c>
+      <c r="T10">
+        <v>0.02939566589121242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.54313251729316</v>
-      </c>
-      <c r="H9">
-        <v>1.54313251729316</v>
-      </c>
-      <c r="I9">
-        <v>0.3905824080219642</v>
-      </c>
-      <c r="J9">
-        <v>0.3905824080219642</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="N9">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="O9">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="P9">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="Q9">
-        <v>25.7317056487222</v>
-      </c>
-      <c r="R9">
-        <v>25.7317056487222</v>
-      </c>
-      <c r="S9">
-        <v>0.06099647550731298</v>
-      </c>
-      <c r="T9">
-        <v>0.06099647550731298</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.698876333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.096629</v>
+      </c>
+      <c r="I11">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="J11">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>36.14140700000001</v>
+      </c>
+      <c r="N11">
+        <v>108.424221</v>
+      </c>
+      <c r="O11">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="P11">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="Q11">
+        <v>61.39978100566768</v>
+      </c>
+      <c r="R11">
+        <v>552.5980290510091</v>
+      </c>
+      <c r="S11">
+        <v>0.1210361118174745</v>
+      </c>
+      <c r="T11">
+        <v>0.1210361118174745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.698876333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.096629</v>
+      </c>
+      <c r="I12">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="J12">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.580447</v>
+      </c>
+      <c r="N12">
+        <v>163.741341</v>
+      </c>
+      <c r="O12">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="P12">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="Q12">
+        <v>92.72542967105434</v>
+      </c>
+      <c r="R12">
+        <v>834.528867039489</v>
+      </c>
+      <c r="S12">
+        <v>0.1827877117827687</v>
+      </c>
+      <c r="T12">
+        <v>0.1827877117827687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.698876333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.096629</v>
+      </c>
+      <c r="I13">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="J13">
+        <v>0.3943176828803611</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N13">
+        <v>54.731798</v>
+      </c>
+      <c r="O13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q13">
+        <v>30.99418543432689</v>
+      </c>
+      <c r="R13">
+        <v>278.947668908942</v>
+      </c>
+      <c r="S13">
+        <v>0.06109819338890549</v>
+      </c>
+      <c r="T13">
+        <v>0.06109819338890547</v>
       </c>
     </row>
   </sheetData>
